--- a/KISEC_Softwae_Tools.xlsx
+++ b/KISEC_Softwae_Tools.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\KISEC\code\github\SoftTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chuck\Documents\GitHub\SoftTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755FE1CC-5BA0-4AC6-BE47-68B7FBD477FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46560" yWindow="630" windowWidth="14730" windowHeight="11880"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t>Sylvio (IBH)</t>
   </si>
@@ -117,12 +118,21 @@
   </si>
   <si>
     <t>Roboterregelung</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Visual Studio Code</t>
+  </si>
+  <si>
+    <t>ZED SDK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,7 +175,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -442,14 +452,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -489,6 +499,9 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
@@ -497,7 +510,18 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -513,6 +537,9 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
@@ -525,6 +552,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
@@ -545,6 +580,9 @@
       <c r="B18" t="s">
         <v>7</v>
       </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -581,6 +619,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
@@ -593,6 +639,9 @@
       <c r="B26" t="s">
         <v>7</v>
       </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -601,6 +650,9 @@
       <c r="B27" t="s">
         <v>7</v>
       </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -609,6 +661,9 @@
       <c r="B28" t="s">
         <v>7</v>
       </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -628,12 +683,18 @@
       <c r="B30" t="s">
         <v>7</v>
       </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
       <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="D31" t="s">
